--- a/crawling/data/이화여자대학교.xlsx
+++ b/crawling/data/이화여자대학교.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\One_for_One_2nd\One_for_One\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E754D17-E09C-4BC6-B8AE-E5BCE734B931}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847C0496-1A04-42F1-8419-A356184E9CDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7169CA72-DF8B-4F19-ADC8-7B6490996FB7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6554" uniqueCount="2167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6561" uniqueCount="2167">
   <si>
     <t>store_url</t>
   </si>
@@ -6935,8 +6935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007FB75D-0F31-4CB5-90AE-F7412CB46279}">
   <dimension ref="A1:I937"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
-      <selection activeCell="M929" sqref="M929"/>
+    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
+      <selection activeCell="F916" sqref="F916"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33440,7 +33440,9 @@
       <c r="E914" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F914" s="1"/>
+      <c r="F914" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="G914" s="1">
         <v>0</v>
       </c>
@@ -33467,7 +33469,9 @@
       <c r="E915" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F915" s="1"/>
+      <c r="F915" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="G915" s="1">
         <v>0</v>
       </c>
@@ -33523,7 +33527,9 @@
       <c r="E917" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F917" s="1"/>
+      <c r="F917" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="G917" s="1">
         <v>0</v>
       </c>
@@ -33550,7 +33556,9 @@
       <c r="E918" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F918" s="1"/>
+      <c r="F918" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="G918" s="1">
         <v>0</v>
       </c>
@@ -33606,7 +33614,9 @@
       <c r="E920" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F920" s="1"/>
+      <c r="F920" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="G920" s="1">
         <v>0</v>
       </c>
@@ -33633,7 +33643,9 @@
       <c r="E921" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F921" s="1"/>
+      <c r="F921" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="G921" s="1">
         <v>0</v>
       </c>
@@ -33660,7 +33672,9 @@
       <c r="E922" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F922" s="1"/>
+      <c r="F922" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="G922" s="1">
         <v>0</v>
       </c>
